--- a/data/income_statement/2digits/size/22_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/22_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>22-Manufacture of rubber and plastic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>22-Manufacture of rubber and plastic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,857 +841,967 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3651911.72894</v>
+        <v>3878848.06898</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4266653.049360001</v>
+        <v>4557287.61221</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5354873.1521</v>
+        <v>5605967.47961</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5516227.263620001</v>
+        <v>5815388.54816</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7708033.802610001</v>
+        <v>8071615.6087</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8924475.033369999</v>
+        <v>9390679.135059999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8713281.43777</v>
+        <v>9432523.40732</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8985234.02648</v>
+        <v>9846521.341010001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10110782.08189</v>
+        <v>11044458.74871</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>18773831.67804</v>
+        <v>19437428.09726</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>20170052.45414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21152448.99213</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>24582851.965</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3286213.96185</v>
+        <v>3485110.18096</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3898528.74692</v>
+        <v>4158109.66455</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4857703.869200001</v>
+        <v>5097326.662389999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4973241.7682</v>
+        <v>5251838.9667</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6997744.990820001</v>
+        <v>7308757.248370001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8063160.411760001</v>
+        <v>8477632.371639999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7940593.67184</v>
+        <v>8582497.04184</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8160168.30127</v>
+        <v>8942593.371479999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9166495.869470002</v>
+        <v>10014123.02264</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16477093.3718</v>
+        <v>16958327.09267</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17252261.90074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18037254.80359</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20686800.81</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>325862.46526</v>
+        <v>350924.11717</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>322558.41975</v>
+        <v>345956.8891799999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>442991.55343</v>
+        <v>451299.86758</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>492492.16968</v>
+        <v>509477.38168</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>640715.92743</v>
+        <v>690110.1044299999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>793667.88905</v>
+        <v>839726.56819</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>684388.9212</v>
+        <v>756673.2577099999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>730963.97875</v>
+        <v>795543.8410899999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>845742.26379</v>
+        <v>919192.4898099999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2103386.84191</v>
+        <v>2280124.92347</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2706551.59469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2898956.31779</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3652828.26</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>39835.30183</v>
+        <v>42813.77085</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>45565.88269</v>
+        <v>53221.05848</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>54177.72947</v>
+        <v>57340.94964</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>50493.32574</v>
+        <v>54072.19978</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>69572.88436</v>
+        <v>72748.2559</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>67646.73256</v>
+        <v>73320.19523</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>88298.84472999998</v>
+        <v>93353.10777000002</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>94101.74645999999</v>
+        <v>108384.12844</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>98543.94863</v>
+        <v>111143.23626</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>193351.46433</v>
+        <v>198976.08112</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>211238.95871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>216237.87075</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>243222.895</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>53569.35809</v>
+        <v>58424.09862</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>49406.17236</v>
+        <v>54653.52284000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>60710.29315</v>
+        <v>63882.42525</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>63172.36333</v>
+        <v>74979.24348</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>96870.02870000001</v>
+        <v>118108.39575</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>100563.84258</v>
+        <v>120087.56875</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>89960.49855000002</v>
+        <v>124084.43679</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>89253.22388999999</v>
+        <v>114467.38975</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>96628.62748000001</v>
+        <v>122616.81413</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>263738.46081</v>
+        <v>288013.10009</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>281725.1293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>307736.4847</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>410386.898</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>34544.69078</v>
+        <v>39365.53017</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>34762.19703</v>
+        <v>39418.86381</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>39535.58184000001</v>
+        <v>42300.83554000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>40982.44915000001</v>
+        <v>44657.7553</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>56451.89056</v>
+        <v>63488.50298</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>65368.09484000001</v>
+        <v>70991.89493000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>56406.89268</v>
+        <v>64324.70418</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>67145.52075999998</v>
+        <v>78183.75353999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>72464.91403</v>
+        <v>82871.69193</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>168785.34252</v>
+        <v>178411.06911</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>200074.42621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>214274.50845</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>311097.491</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>16938.98926</v>
+        <v>17012.46036</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12446.38551</v>
+        <v>12902.411</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>18478.92739</v>
+        <v>18547.97448</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>20677.35236</v>
+        <v>28716.90924</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>38076.56956</v>
+        <v>51928.53691999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>32112.25531</v>
+        <v>45715.67733999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>30218.02725</v>
+        <v>55475.81088</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>19059.61829</v>
+        <v>32999.74518</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>20495.87132</v>
+        <v>35781.33781</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>81959.59785999999</v>
+        <v>94530.28318000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>67656.35101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>77731.72877</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>84275.088</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2085.67805</v>
+        <v>2046.10809</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2197.58982</v>
+        <v>2332.24803</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2695.78392</v>
+        <v>3033.61523</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1512.56182</v>
+        <v>1604.57894</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2341.56858</v>
+        <v>2691.35585</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3083.49243</v>
+        <v>3379.99648</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3335.57862</v>
+        <v>4283.92173</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3048.08484</v>
+        <v>3283.89103</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3667.84213</v>
+        <v>3963.78439</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>12993.52043</v>
+        <v>15071.7478</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>13994.35208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15730.24748</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>15014.319</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3598342.37085</v>
+        <v>3820423.97036</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4217246.877</v>
+        <v>4502634.08937</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5294162.858950001</v>
+        <v>5542085.054359999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5453054.90029</v>
+        <v>5740409.30468</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7611163.77391</v>
+        <v>7953507.21295</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8823911.190789999</v>
+        <v>9270591.56631</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8623320.939220002</v>
+        <v>9308438.970530001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8895980.80259</v>
+        <v>9732053.95126</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10014153.45441</v>
+        <v>10921841.93458</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>18510093.21723</v>
+        <v>19149414.99717</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>19888327.32484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20844712.50743</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>24172465.067</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3033434.33097</v>
+        <v>3226114.41846</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3592448.15374</v>
+        <v>3841256.83963</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4546511.061050001</v>
+        <v>4764191.2756</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4675162.899449999</v>
+        <v>4918655.60353</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6550350.75349</v>
+        <v>6830768.03621</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7660770.69761</v>
+        <v>8047969.66115</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7439478.07958</v>
+        <v>8013695.00313</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7612456.61463</v>
+        <v>8340433.47806</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8614087.65859</v>
+        <v>9392229.824899999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15962949.51684</v>
+        <v>16486806.62706</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17010707.65197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17823858.34574</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>20733717.965</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2299053.13365</v>
+        <v>2478522.99571</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2671742.43783</v>
+        <v>2901803.36278</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3269169.38183</v>
+        <v>3459956.90849</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3373126.35725</v>
+        <v>3572561.83745</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4915073.58502</v>
+        <v>5152359.824130001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5313195.61604</v>
+        <v>5669412.588149999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5192193.83245</v>
+        <v>5691630.79202</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5386692.28233</v>
+        <v>6012350.540200001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6014851.867589999</v>
+        <v>6668157.36366</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12076152.02865</v>
+        <v>12563276.69667</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>12823517.18838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13443784.84854</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15270858.432</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>665832.3515</v>
+        <v>672204.25161</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>805403.8816900001</v>
+        <v>822478.7032400001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1150625.00074</v>
+        <v>1169166.57124</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1158040.63739</v>
+        <v>1194896.6656</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1464245.3824</v>
+        <v>1497577.99314</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2199413.12919</v>
+        <v>2227466.38416</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2038486.02877</v>
+        <v>2107068.52787</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1961108.56172</v>
+        <v>2058293.60818</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2336132.11144</v>
+        <v>2455778.91327</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3522802.21087</v>
+        <v>3551187.88655</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3790248.44557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3978115.2123</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5082695.406</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>58478.26745</v>
+        <v>65207.17832</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>103739.73069</v>
+        <v>104166.76533</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>119948.5893</v>
+        <v>127961.69109</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>137212.34888</v>
+        <v>143929.15971</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>160960.19634</v>
+        <v>171155.50386</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>130266.83599</v>
+        <v>133766.62836</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>181633.30714</v>
+        <v>184453.03323</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>224845.0066</v>
+        <v>227982.45486</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>233115.573</v>
+        <v>237659.19096</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>301339.35893</v>
+        <v>304898.15552</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>329509.8269700001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>333547.85965</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>316384.234</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10070.57837</v>
+        <v>10179.99282</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>11562.10353</v>
+        <v>12808.00828</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6768.08918</v>
+        <v>7106.10478</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6783.55593</v>
+        <v>7267.94077</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>10071.58973</v>
+        <v>9674.71508</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>17895.11639</v>
+        <v>17324.06048</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>27164.91122</v>
+        <v>30542.65001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>39810.76398</v>
+        <v>41806.87482</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>29988.10656</v>
+        <v>30634.35701</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>62655.91839</v>
+        <v>67443.88832</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>67432.19104999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>68410.42525</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>63779.893</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>564908.0398799999</v>
+        <v>594309.5519</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>624798.72326</v>
+        <v>661377.24974</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>747651.7979</v>
+        <v>777893.77876</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>777892.0008399999</v>
+        <v>821753.70115</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1060813.02042</v>
+        <v>1122739.17674</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1163140.49318</v>
+        <v>1222621.90516</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1183842.85964</v>
+        <v>1294743.9674</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1283524.18796</v>
+        <v>1391620.4732</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1400065.79582</v>
+        <v>1529612.10968</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2547143.70039</v>
+        <v>2662608.37011</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2877619.67287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3020854.16169</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3438747.102</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>388257.8042</v>
+        <v>405450.14239</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>443830.38059</v>
+        <v>465255.16355</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>511502.68934</v>
+        <v>529497.33906</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>543505.8144</v>
+        <v>576221.72834</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>719324.00087</v>
+        <v>754432.3193199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>784636.26881</v>
+        <v>809910.7327099999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>806516.1010499999</v>
+        <v>856496.39066</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>885064.61492</v>
+        <v>939579.07661</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>934647.63676</v>
+        <v>993713.01324</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1506531.74904</v>
+        <v>1526774.72926</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1711463.23897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1748233.55575</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1861593.976</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>832.86806</v>
+        <v>878.1692399999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>780.92449</v>
+        <v>849.8789399999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1185.32398</v>
+        <v>1268.98886</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1432.58509</v>
+        <v>1432.96661</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1316.92741</v>
+        <v>2033.97454</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3136.89387</v>
+        <v>4954.57584</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1071.94742</v>
+        <v>1457.64078</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4943.37032</v>
+        <v>4900.81407</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1517.3196</v>
+        <v>1948.88769</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5087.357849999999</v>
+        <v>5106.54368</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6397.32246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7075.568109999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4239.512</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>107751.25549</v>
+        <v>115488.92457</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>122882.10406</v>
+        <v>133706.72963</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>136435.09132</v>
+        <v>146906.54022</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>143680.56809</v>
+        <v>155167.90987</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>196374.13124</v>
+        <v>209330.80493</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>209815.25863</v>
+        <v>226690.63338</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>192686.47967</v>
+        <v>220147.39433</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>222892.89561</v>
+        <v>246315.35955</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>229108.52594</v>
+        <v>256235.33443</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>441826.87202</v>
+        <v>459536.93103</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>510997.6955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>542760.4713999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>566318.776</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>279673.68065</v>
+        <v>289083.04858</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>320167.35204</v>
+        <v>330698.55498</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>373882.27404</v>
+        <v>381321.80998</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>398392.66122</v>
+        <v>419620.85186</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>521632.94222</v>
+        <v>543067.5398500001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>571684.11631</v>
+        <v>578265.5234900001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>612757.67396</v>
+        <v>634891.3555500001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>657228.34899</v>
+        <v>688362.90299</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>704021.79122</v>
+        <v>735528.79112</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1059617.51917</v>
+        <v>1062131.25455</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1194068.22101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1198397.51624</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1291035.688</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>176650.23568</v>
+        <v>188859.40951</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>180968.34267</v>
+        <v>196122.08619</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>236149.10856</v>
+        <v>248396.4397</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>234386.18644</v>
+        <v>245531.97281</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>341489.01955</v>
+        <v>368306.85742</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>378504.22437</v>
+        <v>412711.1724500001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>377326.75859</v>
+        <v>438247.57674</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>398459.57304</v>
+        <v>452041.39659</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>465418.15906</v>
+        <v>535899.09644</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1040611.95135</v>
+        <v>1135833.64085</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1166156.4339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1272620.60594</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1577153.126</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>39170.05254</v>
+        <v>43986.12965</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>36399.16961</v>
+        <v>41977.37883</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>41356.27394</v>
+        <v>47639.21812</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>34987.26620000001</v>
+        <v>46431.07303</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>58976.15274</v>
+        <v>63499.61994</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>57625.01687000001</v>
+        <v>71954.69972</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>97581.52765999999</v>
+        <v>124477.29047</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>81139.36156999999</v>
+        <v>107472.19403</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>89696.02321000001</v>
+        <v>107113.99454</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>475941.95133</v>
+        <v>606216.7754200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>313436.88794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>430179.82561</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>535628.4570000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>95.18883</v>
+        <v>96.93883</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>256.0647</v>
+        <v>255.8857</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>6.09431</v>
+        <v>2.59431</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>49.19448000000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>9.87557</v>
+        <v>9.456850000000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>193.17188</v>
+        <v>2595.35025</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>72.22606</v>
+        <v>2732.74299</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>13.93938</v>
+        <v>4013.93938</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>71.1511</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>44.67256</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>784.568</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,229 +1839,259 @@
         <v>134.91264</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2.26601</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0.0915</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>2174.79585</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>4771.674220000001</v>
+        <v>138.53447</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>4413.17223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>7246.497</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3354.63859</v>
+        <v>3728.14262</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3726.86666</v>
+        <v>4941.91632</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3177.82052</v>
+        <v>4766.194219999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3654.51263</v>
+        <v>6657.32858</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4734.13763</v>
+        <v>5989.95791</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6835.23117</v>
+        <v>9819.498870000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8313.57763</v>
+        <v>10921.62867</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7634.83424</v>
+        <v>9202.677530000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>11958.89377</v>
+        <v>13807.90596</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>32790.76261999999</v>
+        <v>35287.48529</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>39495.31121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>45270.18138</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>36770.328</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>393.04228</v>
+        <v>352.92704</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>525.93785</v>
+        <v>516.5256400000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1013.93856</v>
+        <v>1036.08494</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2253.80626</v>
+        <v>2253.55735</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>428.24753</v>
+        <v>427.80279</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>301.38004</v>
+        <v>741.80597</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>233.27234</v>
+        <v>1168.95061</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>892.63873</v>
+        <v>1386.79541</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1553.16995</v>
+        <v>1536.53456</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>673.30099</v>
+        <v>564.01199</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3354.86988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2146.55764</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8434.35</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1012.90151</v>
+        <v>1104.93149</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>644.56456</v>
+        <v>660.89897</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>518.28734</v>
+        <v>575.6000600000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1645.64409</v>
+        <v>1830.50943</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2204.78985</v>
+        <v>1859.62577</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1094.12439</v>
+        <v>1145.75569</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2942.78539</v>
+        <v>2556.58171</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2234.41531</v>
+        <v>2359.37614</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3798.45332</v>
+        <v>3150.88435</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6218.504300000001</v>
+        <v>6307.15185</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>9319.557919999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>11560.33896</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16150.304</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>238.90315</v>
+        <v>506.38805</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>171.96885</v>
+        <v>191.24467</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>238.35279</v>
+        <v>292.02738</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>329.3788</v>
+        <v>335.68573</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>368.78316</v>
+        <v>510.05607</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>475.62317</v>
+        <v>672.81056</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>738.1095</v>
+        <v>749.2700599999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1121.4641</v>
+        <v>2387.10251</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>604.4772899999999</v>
+        <v>593.5425</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3225.76129</v>
+        <v>3172.49385</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2684.33792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2730.30183</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>9000.953</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>21627.22255</v>
+        <v>25717.57505</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>19480.83662</v>
+        <v>24073.10554</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>24901.66785</v>
+        <v>27781.2063</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>15052.67997</v>
+        <v>21108.29552</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>35542.68205</v>
+        <v>40515.78467</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29513.01031</v>
+        <v>40240.17433</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>62135.33508999999</v>
+        <v>74079.76728</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>44468.14154</v>
+        <v>58564.97754</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>46480.07769</v>
+        <v>58529.01731</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>386555.01865</v>
+        <v>511577.80497</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>200369.04985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>306178.2773</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>404633.511</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>388.02709</v>
+        <v>419.6739</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>91.8643</v>
+        <v>323.27012</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>146.69485</v>
@@ -2054,34 +2100,39 @@
         <v>172.47778</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>545.14249</v>
+        <v>600.8446</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>383.14705</v>
+        <v>661.91657</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>158.02036</v>
+        <v>466.82387</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>202.4835</v>
+        <v>354.34608</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>136.19513</v>
+        <v>198.98978</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>717.1575300000001</v>
+        <v>725.41362</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>879.7535899999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>406.077</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>41.87737</v>
+        <v>45.71202</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>314.85969</v>
@@ -2096,268 +2147,303 @@
         <v>9.233090000000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>85.48196</v>
+        <v>85.65619000000001</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>88.74186999999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>101.47568</v>
+        <v>60.17934</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>218.70612</v>
+        <v>103.16463</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>100.17908</v>
+        <v>87.65353</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>116.84126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>111.95727</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>55.741</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>12018.25117</v>
+        <v>12013.84065</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>11147.24568</v>
+        <v>10660.71148</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10956.44913</v>
+        <v>12641.84747</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>11716.42697</v>
+        <v>13910.87894</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14998.34873</v>
+        <v>13441.94555</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>18741.58089</v>
+        <v>15991.73129</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>22899.36792</v>
+        <v>31712.69191</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>24469.96909</v>
+        <v>26968.00425</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>24874.89884000001</v>
+        <v>29122.80435</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>40516.95682</v>
+        <v>47983.59002</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>52759.32152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>61257.78508000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>52146.128</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>39165.82255</v>
+        <v>48422.62697</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>32979.62974</v>
+        <v>32605.63689</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>35967.12638</v>
+        <v>46462.61407</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>29704.53224</v>
+        <v>37000.34458</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>65410.04839</v>
+        <v>75310.57786000002</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>51336.99391</v>
+        <v>70191.73937000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>84607.07792</v>
+        <v>106502.8669</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>74764.93642</v>
+        <v>118889.21751</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>74690.69365</v>
+        <v>91394.41888000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>483405.26219</v>
+        <v>625934.97988</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>280100.35671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>395865.88365</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>429193.433</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1583.34881</v>
+        <v>1671.66076</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>638.13827</v>
+        <v>1092.7861</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1413.92192</v>
+        <v>1458.84799</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1036.62523</v>
+        <v>1055.15058</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2736.70535</v>
+        <v>2777.13427</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2181.39388</v>
+        <v>2179.60595</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1885.39742</v>
+        <v>2152.61705</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1896.39949</v>
+        <v>1960.84563</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1207.89757</v>
+        <v>1443.44098</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4932.172890000001</v>
+        <v>5049.3515</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5705.25825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6494.834900000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7713.039</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>9161.509310000001</v>
+        <v>12431.60757</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8225.022509999999</v>
+        <v>4941.6223</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3358.84892</v>
+        <v>3477.25295</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7966.53441</v>
+        <v>7182.415300000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>14996.76724</v>
+        <v>15101.89618</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9784.811689999999</v>
+        <v>11049.32373</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12489.7026</v>
+        <v>11628.92776</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16343.58862</v>
+        <v>23003.2405</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>12518.96708</v>
+        <v>12513.36051</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>31813.44471</v>
+        <v>32467.15466</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>33216.88304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>37012.91393</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>27749.466</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>106.55549</v>
+        <v>104.43878</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>39.70728</v>
+        <v>35.59425</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>374.70912</v>
+        <v>380.31052</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>218.23034</v>
+        <v>360.46066</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>67.19350999999999</v>
+        <v>108.58089</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>114.91148</v>
+        <v>113.36888</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>413.91267</v>
+        <v>400.91681</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>213.9343</v>
+        <v>1262.45103</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>349.86475</v>
+        <v>320.22139</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>640.4542200000001</v>
+        <v>604.0381000000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>671.23914</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1811.289</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>23416.99784</v>
+        <v>27657.83715</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>18642.63653</v>
+        <v>22412.35609</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>26273.61696</v>
+        <v>31949.9991</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>16396.86126</v>
+        <v>22013.13296</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>39114.05849</v>
+        <v>49321.69506999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31264.57842</v>
+        <v>47145.34316</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>62197.77581</v>
+        <v>82897.60076999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>43494.71212999999</v>
+        <v>76616.89048</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>51985.33466</v>
+        <v>67849.10400000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>430874.4709600001</v>
+        <v>572392.20915</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>220312.04921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>328825.94944</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>375432.153</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>73.78299000000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>69.3951</v>
+        <v>175.74664</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>21.95557</v>
@@ -2369,55 +2455,60 @@
         <v>586.0702199999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>473.2347</v>
+        <v>697.1566800000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>174.54655</v>
+        <v>393.08325</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>156.08193</v>
+        <v>275.2716600000001</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>147.2282</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>926.03595</v>
+        <v>925.70745</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1002.81558</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>446.735</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>44.84908</v>
+        <v>26.91008</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>7.173640000000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>13.96908</v>
+        <v>8.413860000000001</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>52.04654</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.03436</v>
+        <v>81.61917</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>10.00831</v>
+        <v>10.0083</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>15.65148</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4778.779030000001</v>
+        <v>6456.38964</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5357.55641</v>
+        <v>3940.35787</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4510.104810000001</v>
+        <v>9165.834080000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3731.74583</v>
+        <v>6034.64991</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7909.253529999999</v>
+        <v>7415.201230000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7518.02938</v>
+        <v>8925.321800000002</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7435.734560000001</v>
+        <v>9019.712960000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12660.21992</v>
+        <v>15770.51821</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8481.401370000001</v>
+        <v>9121.0638</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14218.68346</v>
+        <v>14496.51902</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>19176.46001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>21842.47918</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16040.751</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>70930.78960999999</v>
+        <v>93070.42207</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>59777.13195</v>
+        <v>73654.89997</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>69995.07401000001</v>
+        <v>81242.87285</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>83814.77919</v>
+        <v>100517.53923</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>120968.70076</v>
+        <v>136456.96128</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>129785.28251</v>
+        <v>156049.56441</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>141071.44725</v>
+        <v>178091.86412</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>151960.58039</v>
+        <v>201244.16276</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>164424.24333</v>
+        <v>217736.38587</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>488917.54956</v>
+        <v>535587.36675</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>509288.87213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>573304.6488199999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>435380.027</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>67643.63681</v>
+        <v>87762.20109</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>55412.00896</v>
+        <v>68954.38789</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>66445.13550999999</v>
+        <v>77394.39812</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>79983.75210000001</v>
+        <v>96164.54553</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>115740.67847</v>
+        <v>129244.57965</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>124787.32517</v>
+        <v>149146.73805</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>135320.39544</v>
+        <v>170756.98066</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>145516.69565</v>
+        <v>193832.44299</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>157217.91841</v>
+        <v>206537.68988</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>467790.03718</v>
+        <v>511914.00608</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>487433.53887</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>536751.675</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>414637.361</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3287.1528</v>
+        <v>5308.22098</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4365.12299</v>
+        <v>4700.51208</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3549.9385</v>
+        <v>3848.47473</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3831.02709</v>
+        <v>4352.9937</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5228.022289999999</v>
+        <v>7212.38163</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4997.95734</v>
+        <v>6902.82636</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5751.05181</v>
+        <v>7334.883460000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6443.88474</v>
+        <v>7411.71977</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7206.32492</v>
+        <v>11198.69599</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>21127.51238</v>
+        <v>23673.36067</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21855.33326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>36552.97382</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>20742.666</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>105723.67606</v>
+        <v>91352.49012</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>124610.75059</v>
+        <v>131838.92816</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>171543.18211</v>
+        <v>168330.1709</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>155854.14121</v>
+        <v>154445.16203</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>214086.42314</v>
+        <v>220038.93822</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>255006.96482</v>
+        <v>258424.56839</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>249229.76108</v>
+        <v>278130.13619</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>252873.4178</v>
+        <v>239380.21035</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>315999.24529</v>
+        <v>333882.28623</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>544231.0909300001</v>
+        <v>580528.06964</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>690204.093</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>733629.89908</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1248208.123</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15150.71781</v>
+        <v>19413.10083</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>21460.0345</v>
+        <v>24163.8701</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>23810.08601</v>
+        <v>25450.49939</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30789.38376</v>
+        <v>35334.67051</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>50120.78857</v>
+        <v>40246.80768000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>42026.93029</v>
+        <v>48744.42297</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>43910.91614</v>
+        <v>51925.37108</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>52218.88533999999</v>
+        <v>66364.27671999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>53493.58205</v>
+        <v>60124.57286</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>107966.2178</v>
+        <v>109206.1129</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>136703.97503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>179302.06003</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>150989.903</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>213.32859</v>
+        <v>251.95586</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>673.0120899999999</v>
+        <v>813.0727899999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>274.91867</v>
+        <v>966.27414</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3048.15536</v>
+        <v>3040.687</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>739.11848</v>
+        <v>734.62438</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>510.51291</v>
+        <v>610.6779799999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>539.0870699999999</v>
+        <v>453.6021700000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>987.9667000000001</v>
+        <v>980.87892</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>691.0430799999999</v>
+        <v>1234.94165</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>526.59512</v>
+        <v>470.15777</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>474.2171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1214.64676</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1333.024</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14937.38922</v>
+        <v>19161.14497</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20787.02241</v>
+        <v>23350.79731</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>23535.16734</v>
+        <v>24484.22525</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>27741.2284</v>
+        <v>32293.98351</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>49381.67009</v>
+        <v>39512.1833</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>41516.41738000001</v>
+        <v>48133.74499</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>43371.82907</v>
+        <v>51471.76891000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>51230.91864</v>
+        <v>65383.3978</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>52802.53897</v>
+        <v>58889.63121</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>107439.62268</v>
+        <v>108735.95513</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>136229.75793</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>178087.41327</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>149656.879</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21230.52057</v>
+        <v>37812.07251</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>25955.4793</v>
+        <v>23202.31223</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>128629.65454</v>
+        <v>151941.90517</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>37649.85125</v>
+        <v>38539.11677</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>32047.24986</v>
+        <v>37055.90976</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>87262.64298</v>
+        <v>97767.95578</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>60828.95344</v>
+        <v>46146.86704999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>128825.58012</v>
+        <v>144979.32201</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>44983.28287</v>
+        <v>44529.75876999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>167814.38364</v>
+        <v>173992.22619</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>95474.11028000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>97427.03361</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>104033.395</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2228.53405</v>
+        <v>5864.74046</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>3315.41146</v>
+        <v>5160.569979999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3065.82579</v>
+        <v>3438.10641</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2392.45557</v>
+        <v>5272.808930000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1913.64148</v>
+        <v>4656.18866</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2030.20233</v>
+        <v>6701.44729</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4571.77465</v>
+        <v>7812.454519999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8246.31201</v>
+        <v>9915.155429999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2661.76103</v>
+        <v>2301.60854</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3181.35191</v>
+        <v>1434.05214</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6189.24993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7407.70584</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7476.41</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>847.96889</v>
+        <v>2428.51247</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1090.30926</v>
+        <v>1183.86861</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2505.28873</v>
+        <v>2553.08444</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1722.18412</v>
+        <v>1551.84084</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>846.208</v>
+        <v>1036.99241</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1255.31756</v>
+        <v>1833.63421</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>938.97202</v>
+        <v>970.7293000000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1399.69374</v>
+        <v>1290.75293</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>789.35937</v>
+        <v>751.0246099999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1064.5786</v>
+        <v>1311.8706</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1103.45924</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5876.33564</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3256.864</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18154.01763</v>
+        <v>29518.81958</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>21549.75858</v>
+        <v>16857.87364</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>123058.54002</v>
+        <v>145950.71432</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33535.21156</v>
+        <v>31714.467</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29287.40038</v>
+        <v>31362.72869</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>83977.12309000001</v>
+        <v>89232.87428</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>55318.20677</v>
+        <v>37363.68323</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>119179.57437</v>
+        <v>133773.41365</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>41532.16247</v>
+        <v>41477.12562</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>163568.45313</v>
+        <v>171246.30345</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>88181.40111000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>84142.99213</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>93300.121</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>99643.87330000001</v>
+        <v>72953.51844</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>120115.30579</v>
+        <v>132800.48603</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>66723.61358</v>
+        <v>41838.76512</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>148993.67372</v>
+        <v>151240.71577</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>232159.96185</v>
+        <v>223229.83614</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>209771.25213</v>
+        <v>209401.03558</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>232311.72378</v>
+        <v>283908.64022</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>176266.72302</v>
+        <v>160765.16506</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>324509.54447</v>
+        <v>349477.10032</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>484382.92509</v>
+        <v>515741.95635</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>731433.9577499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>815504.9255</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1295164.631</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>27313.82661</v>
+        <v>27927.59959</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>31527.1082</v>
+        <v>32790.28184</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>36823.88385</v>
+        <v>37892.84031</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>35737.45051</v>
+        <v>36465.94605</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50320.77271</v>
+        <v>51420.50919</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55988.31805</v>
+        <v>57881.61785</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>57370.05205999999</v>
+        <v>62409.9967</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>61596.33565</v>
+        <v>64724.09784</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>69674.36373</v>
+        <v>72782.97646000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>139248.71029</v>
+        <v>142036.99278</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>169231.4763</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>172863.43297</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>248116.963</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>72330.04669</v>
+        <v>45025.91885</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>88588.19759000001</v>
+        <v>100010.20419</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>29899.72973</v>
+        <v>3945.92481</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>113256.22321</v>
+        <v>114774.76972</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>181839.18914</v>
+        <v>171809.32695</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>153782.93408</v>
+        <v>151519.41773</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>174941.67172</v>
+        <v>221498.64352</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>114670.38737</v>
+        <v>96041.06722</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>254835.18074</v>
+        <v>276694.12386</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>345134.2148</v>
+        <v>373704.96357</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>562202.4814500001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>642641.4925299999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1047047.668</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2035</v>
+        <v>1906</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2197</v>
+        <v>2029</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2401</v>
+        <v>2189</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2502</v>
+        <v>2253</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2899</v>
+        <v>2499</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3040</v>
+        <v>2583</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3133</v>
+        <v>2655</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3306</v>
+        <v>2722</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3444</v>
+        <v>2804</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2727</v>
+        <v>2419</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2373</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>